--- a/timeplan.xlsx
+++ b/timeplan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Time Schedule - Semesterthesis - Julian Surber - HS2015</t>
   </si>
@@ -54,9 +54,6 @@
     <t>3days</t>
   </si>
   <si>
-    <t>31.11.</t>
-  </si>
-  <si>
     <t>0 days</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Presentation preparation</t>
   </si>
   <si>
-    <t>week starting from</t>
-  </si>
-  <si>
     <t>Milestone 3: Presentation</t>
   </si>
   <si>
@@ -87,16 +81,19 @@
     <t>Define Performance Measures</t>
   </si>
   <si>
-    <t>Milestone 1: Codes working, Performance measures defined, Postprocessing ready</t>
-  </si>
-  <si>
     <t>Milestone 2: Thesis first version (for review)</t>
   </si>
   <si>
-    <t xml:space="preserve">Set </t>
-  </si>
-  <si>
     <t>08.12.</t>
+  </si>
+  <si>
+    <t>Define desired plots for thesis</t>
+  </si>
+  <si>
+    <t>Milestone 1: Codes working, Calibration, Desired plots defined, Datasets defined, Postprocessing ready</t>
+  </si>
+  <si>
+    <t>01.12.</t>
   </si>
 </sst>
 </file>
@@ -549,10 +546,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -572,9 +572,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -594,10 +592,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -628,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -652,7 +650,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -669,7 +667,7 @@
     </row>
     <row r="10" spans="1:13" ht="30">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
@@ -684,12 +682,12 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+    <row r="11" spans="1:13" ht="30">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -703,11 +701,11 @@
     </row>
     <row r="12" spans="1:13" ht="45">
       <c r="A12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -720,11 +718,11 @@
     </row>
     <row r="13" spans="1:13" ht="45">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -737,7 +735,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -754,7 +752,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -786,7 +784,7 @@
     </row>
     <row r="17" spans="1:13" ht="60">
       <c r="A17" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -803,7 +801,7 @@
     </row>
     <row r="18" spans="1:13" ht="30">
       <c r="A18" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -820,7 +818,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -837,7 +835,7 @@
     </row>
     <row r="20" spans="1:13" ht="30">
       <c r="A20" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1259,11 +1257,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>

--- a/timeplan.xlsx
+++ b/timeplan.xlsx
@@ -552,7 +552,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -670,7 +670,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
